--- a/data/trans_orig/P23_1_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>106685</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>88960</v>
+        <v>90146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123942</v>
+        <v>122795</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3631707922823302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3028324210893553</v>
+        <v>0.3068676134352458</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4219159695732067</v>
+        <v>0.4180105089429364</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -763,19 +763,19 @@
         <v>160164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142433</v>
+        <v>142635</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>177611</v>
+        <v>176862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5547691754798346</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4933548130234134</v>
+        <v>0.4940553329396535</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.615202013821361</v>
+        <v>0.6126090044901905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>246</v>
@@ -784,19 +784,19 @@
         <v>266849</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>243565</v>
+        <v>242633</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>291996</v>
+        <v>292286</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4581380828471164</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4181632327964128</v>
+        <v>0.4165627160951775</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5013109224637792</v>
+        <v>0.5018096359819354</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>80745</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66774</v>
+        <v>67001</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96762</v>
+        <v>99620</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2748648670953197</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2273073526833269</v>
+        <v>0.2280787704521945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3293900779544644</v>
+        <v>0.339117954456905</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -834,19 +834,19 @@
         <v>54826</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41717</v>
+        <v>41848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69993</v>
+        <v>69203</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.189903909235808</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1444978725314093</v>
+        <v>0.1449520723953365</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2424410668067762</v>
+        <v>0.2397046919799337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -855,19 +855,19 @@
         <v>135570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116841</v>
+        <v>116111</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>157043</v>
+        <v>158018</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2327532801546847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2005969959574501</v>
+        <v>0.1993452413876457</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2696181731886159</v>
+        <v>0.2712920241180009</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>9151</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4553</v>
+        <v>4446</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17306</v>
+        <v>18038</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03115247030392961</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01549837284826347</v>
+        <v>0.01513388673977463</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05891260728024629</v>
+        <v>0.06140497765346271</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -905,19 +905,19 @@
         <v>8564</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3996</v>
+        <v>3833</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15517</v>
+        <v>15303</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02966466222221128</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01383998488654286</v>
+        <v>0.01327731380944794</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05374853096125282</v>
+        <v>0.05300477262454358</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -926,19 +926,19 @@
         <v>17716</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11242</v>
+        <v>10631</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26755</v>
+        <v>26877</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03041502617708887</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01930035657796989</v>
+        <v>0.01825175964535729</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04593463346912696</v>
+        <v>0.04614413134443007</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>97180</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80318</v>
+        <v>80121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113774</v>
+        <v>113408</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3308118703184204</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2734121045622358</v>
+        <v>0.2727405823967518</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3873018605529491</v>
+        <v>0.3860554733251974</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -976,19 +976,19 @@
         <v>65149</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52207</v>
+        <v>52320</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81850</v>
+        <v>81148</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2256622530621462</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1808332355359036</v>
+        <v>0.1812244074903385</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2835099297241575</v>
+        <v>0.2810787745186595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>150</v>
@@ -997,19 +997,19 @@
         <v>162329</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140157</v>
+        <v>138029</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>186141</v>
+        <v>185906</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.27869361082111</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2406270812332824</v>
+        <v>0.2369741157502642</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3195750945807511</v>
+        <v>0.3191715902297555</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>207802</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>183960</v>
+        <v>186778</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>229513</v>
+        <v>232407</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4141865297242188</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3666656412478295</v>
+        <v>0.3722822521927782</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4574595898550048</v>
+        <v>0.463228428333584</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>311</v>
@@ -1122,19 +1122,19 @@
         <v>341005</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>319073</v>
+        <v>320255</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>363057</v>
+        <v>362307</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.654662505378095</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6125587522384777</v>
+        <v>0.6148267402292552</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6969985665826841</v>
+        <v>0.6955589991743414</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>507</v>
@@ -1143,19 +1143,19 @@
         <v>548807</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>513795</v>
+        <v>515535</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>581069</v>
+        <v>582348</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5366791818151021</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5024411123653493</v>
+        <v>0.5041432212234701</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.568229204363556</v>
+        <v>0.5694799585638251</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>84868</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68274</v>
+        <v>69407</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103913</v>
+        <v>103408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1691566241698684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1360815882991705</v>
+        <v>0.1383405191152987</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2071165503381515</v>
+        <v>0.2061107990193899</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1193,19 +1193,19 @@
         <v>39033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26298</v>
+        <v>28652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52405</v>
+        <v>53640</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07493606310987927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05048654743431819</v>
+        <v>0.05500708389261042</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1006065414258231</v>
+        <v>0.1029788800385284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -1214,19 +1214,19 @@
         <v>123901</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104596</v>
+        <v>103922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146078</v>
+        <v>144873</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1211629467376544</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.102284883616718</v>
+        <v>0.1016250950979546</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1428496666820575</v>
+        <v>0.1416713322862075</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>14931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8340</v>
+        <v>8728</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24652</v>
+        <v>23816</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02975945896477416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01662325186643517</v>
+        <v>0.01739673208415493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04913552455153149</v>
+        <v>0.04746939160842487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1264,19 +1264,19 @@
         <v>5184</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2067</v>
+        <v>2008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11418</v>
+        <v>11802</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009952050753644999</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003968389988678632</v>
+        <v>0.003854302435742662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02192114332783921</v>
+        <v>0.02265719416291537</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1285,19 +1285,19 @@
         <v>20115</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12252</v>
+        <v>12049</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30807</v>
+        <v>31193</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01967004376963576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01198083620141298</v>
+        <v>0.01178256652995029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03012604455498271</v>
+        <v>0.03050340790086066</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>194111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>172346</v>
+        <v>171610</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>215449</v>
+        <v>216170</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3868973871411386</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3435168153853983</v>
+        <v>0.3420492915656836</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4294291226762898</v>
+        <v>0.4308652516808513</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>129</v>
@@ -1335,19 +1335,19 @@
         <v>135664</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114319</v>
+        <v>115296</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>155630</v>
+        <v>153733</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2604493807583808</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.219470506826383</v>
+        <v>0.2213453654572135</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2987802108563105</v>
+        <v>0.2951383005607919</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>310</v>
@@ -1356,19 +1356,19 @@
         <v>329775</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>300935</v>
+        <v>300657</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>364283</v>
+        <v>360018</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3224878276776077</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2942851535422945</v>
+        <v>0.2940127197912059</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3562327530794092</v>
+        <v>0.3520620787151568</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>152272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134996</v>
+        <v>135450</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>170069</v>
+        <v>170410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4779936023617758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.423763873057389</v>
+        <v>0.4251870754939863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5338611590159311</v>
+        <v>0.5349306554480442</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -1481,19 +1481,19 @@
         <v>224485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>207385</v>
+        <v>207027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241196</v>
+        <v>241864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6674949185508909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6166511008617411</v>
+        <v>0.6155850032889846</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7171862140250971</v>
+        <v>0.7191731808588399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>377</v>
@@ -1502,19 +1502,19 @@
         <v>376757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>351648</v>
+        <v>350597</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>399388</v>
+        <v>398804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5753115575158736</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5369701821562736</v>
+        <v>0.535365078993819</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6098699673784851</v>
+        <v>0.6089777089184889</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>69962</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>56139</v>
+        <v>56516</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>84714</v>
+        <v>84831</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2196172752497238</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.176224515288645</v>
+        <v>0.1774082844496778</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2659231514184265</v>
+        <v>0.2662899335639086</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -1552,19 +1552,19 @@
         <v>30421</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20821</v>
+        <v>20981</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42193</v>
+        <v>41828</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09045681199784104</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06191055300695565</v>
+        <v>0.06238667812001874</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1254602262307485</v>
+        <v>0.1243748302156389</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>107</v>
@@ -1573,19 +1573,19 @@
         <v>100384</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>83371</v>
+        <v>82094</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>117755</v>
+        <v>118612</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1532872231782902</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.12730899782325</v>
+        <v>0.1253582126552589</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1798126096076238</v>
+        <v>0.181121190680879</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>7360</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3258</v>
+        <v>3410</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15200</v>
+        <v>14826</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02310369150773936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01022583944075881</v>
+        <v>0.01070540342510128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04771268174640976</v>
+        <v>0.04654048395917406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1623,19 +1623,19 @@
         <v>6292</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2648</v>
+        <v>2585</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12965</v>
+        <v>13500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01871046032021852</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007875165435917129</v>
+        <v>0.007687845886347199</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03855081783501942</v>
+        <v>0.04014120743485453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1644,19 +1644,19 @@
         <v>13653</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7805</v>
+        <v>7735</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23997</v>
+        <v>23649</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0208475579658379</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01191760108905067</v>
+        <v>0.01181129773548113</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03664365391657093</v>
+        <v>0.03611173703274517</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>88971</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74617</v>
+        <v>74480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>104901</v>
+        <v>105047</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.279285430880761</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2342290152260165</v>
+        <v>0.2337993355645512</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3292915897662745</v>
+        <v>0.3297518800901626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>77</v>
@@ -1694,19 +1694,19 @@
         <v>75111</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60686</v>
+        <v>60374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88943</v>
+        <v>91447</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2233378091310495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1804469682756465</v>
+        <v>0.1795194360348715</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2644688865826146</v>
+        <v>0.2719137509629061</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -1715,19 +1715,19 @@
         <v>164081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143727</v>
+        <v>142699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>184679</v>
+        <v>185614</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2505536613399983</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2194727449067849</v>
+        <v>0.2179032872621234</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2820069123093442</v>
+        <v>0.2834347361663931</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>131886</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113354</v>
+        <v>113208</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151747</v>
+        <v>150778</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3564832592270074</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3063921909999964</v>
+        <v>0.3059963242365635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4101661358989053</v>
+        <v>0.4075471676600469</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -1840,19 +1840,19 @@
         <v>226535</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>206269</v>
+        <v>206393</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>245502</v>
+        <v>248280</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5868800711824541</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5343776348823501</v>
+        <v>0.5346996271979249</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6360195341982551</v>
+        <v>0.6432153362896853</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>333</v>
@@ -1861,19 +1861,19 @@
         <v>358420</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>332603</v>
+        <v>331494</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>386260</v>
+        <v>385687</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4741249572914925</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4399733912344736</v>
+        <v>0.4385059315126852</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.510952080130444</v>
+        <v>0.5101939938298036</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>98791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81419</v>
+        <v>83719</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116510</v>
+        <v>119037</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2670298508348287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.220073236122885</v>
+        <v>0.2262898689627076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3149237520400117</v>
+        <v>0.3217516818898998</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -1911,19 +1911,19 @@
         <v>50706</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38148</v>
+        <v>39450</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64807</v>
+        <v>65056</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1313643577136356</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09882884582125732</v>
+        <v>0.1022036485000001</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1678942856653038</v>
+        <v>0.1685403904011439</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>148</v>
@@ -1932,19 +1932,19 @@
         <v>149498</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127625</v>
+        <v>128406</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>173246</v>
+        <v>171931</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1977584106439846</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1688242724847743</v>
+        <v>0.1698579912554486</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.229173393988635</v>
+        <v>0.227433676627871</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>8513</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3722</v>
+        <v>3747</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16087</v>
+        <v>15444</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02301075263608932</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01006138097151056</v>
+        <v>0.01012709543455635</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04348244593472123</v>
+        <v>0.04174444304269193</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1982,19 +1982,19 @@
         <v>13173</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7002</v>
+        <v>6953</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22493</v>
+        <v>22042</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03412647297031599</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01813871100031533</v>
+        <v>0.0180142321295263</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05827301626344959</v>
+        <v>0.05710415964559361</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -2003,19 +2003,19 @@
         <v>21686</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14509</v>
+        <v>14407</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33023</v>
+        <v>32759</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02868649182809352</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01919333950075859</v>
+        <v>0.01905749356164122</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0436836422118202</v>
+        <v>0.04333415461830715</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>130773</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>111796</v>
+        <v>112405</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>149906</v>
+        <v>151310</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3534761373020746</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3021818177876277</v>
+        <v>0.3038255914368451</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4051914032411266</v>
+        <v>0.408985881788058</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -2053,19 +2053,19 @@
         <v>95584</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78583</v>
+        <v>79275</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>113007</v>
+        <v>113898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2476290981335944</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2035848014283718</v>
+        <v>0.2053764635622705</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2927644870298787</v>
+        <v>0.2950735757981188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>209</v>
@@ -2074,19 +2074,19 @@
         <v>226358</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>201910</v>
+        <v>197757</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>250305</v>
+        <v>250707</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2994301402364294</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2670904190859436</v>
+        <v>0.2615959595666956</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3311076674916069</v>
+        <v>0.3316396172157747</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>81275</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>67198</v>
+        <v>67008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>95682</v>
+        <v>95293</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3847855986680591</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3181410327310499</v>
+        <v>0.3172422051536801</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4529942101401719</v>
+        <v>0.4511513949962221</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>141</v>
@@ -2199,19 +2199,19 @@
         <v>140265</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>125182</v>
+        <v>125082</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>154023</v>
+        <v>153440</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6416885357942367</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5726882420895998</v>
+        <v>0.5722305369367063</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7046323292625464</v>
+        <v>0.7019642282680115</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>225</v>
@@ -2220,19 +2220,19 @@
         <v>221540</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>199379</v>
+        <v>201214</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>242864</v>
+        <v>241707</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5154384542340229</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4638783234904996</v>
+        <v>0.4681496004147046</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5650518526650815</v>
+        <v>0.5623592579089067</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>44815</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33016</v>
+        <v>33814</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57076</v>
+        <v>57966</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2121728001682036</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1563083482839756</v>
+        <v>0.1600876210826493</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2702187073226491</v>
+        <v>0.2744319097639125</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -2270,19 +2270,19 @@
         <v>21679</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14176</v>
+        <v>13619</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32905</v>
+        <v>32032</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09917920167244532</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06485200962362209</v>
+        <v>0.06230527460806564</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.150535243472114</v>
+        <v>0.1465425113155921</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -2291,19 +2291,19 @@
         <v>66495</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53462</v>
+        <v>52481</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83466</v>
+        <v>82771</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1547077650491461</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1243857057083641</v>
+        <v>0.122102308556306</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1941932018299472</v>
+        <v>0.192576252225956</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>5269</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1852</v>
+        <v>1824</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12372</v>
+        <v>12067</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02494708291864942</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008768839852953791</v>
+        <v>0.008634761701403489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05857595485385762</v>
+        <v>0.05713074972353074</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2354,19 +2354,19 @@
         <v>5269</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12056</v>
+        <v>12137</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01225977129106157</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004304389281821822</v>
+        <v>0.00426744663584673</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02805054778933972</v>
+        <v>0.02823921471405243</v>
       </c>
     </row>
     <row r="27">
@@ -2383,19 +2383,19 @@
         <v>79862</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>66234</v>
+        <v>65509</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>95873</v>
+        <v>94939</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3780945182450879</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3135787132479846</v>
+        <v>0.3101439252826356</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4538986861196889</v>
+        <v>0.4494772981279086</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>60</v>
@@ -2404,19 +2404,19 @@
         <v>56643</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.259132262533318</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>137</v>
@@ -2425,19 +2425,19 @@
         <v>136504</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>117495</v>
+        <v>116842</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>156822</v>
+        <v>156677</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3175940094257694</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2733652938066553</v>
+        <v>0.2718472669696262</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3648663205498276</v>
+        <v>0.3645271940575743</v>
       </c>
     </row>
     <row r="28">
@@ -2529,19 +2529,19 @@
         <v>123503</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>105682</v>
+        <v>109151</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>139295</v>
+        <v>139964</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4693755218322294</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4016445338924549</v>
+        <v>0.4148286787489828</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5293914859245594</v>
+        <v>0.5319351298227895</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>175</v>
@@ -2550,19 +2550,19 @@
         <v>183257</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>166750</v>
+        <v>167025</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>196877</v>
+        <v>198109</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6709897817000126</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6105495120839998</v>
+        <v>0.6115568511444012</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7208578307502999</v>
+        <v>0.7253690875833938</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>297</v>
@@ -2571,19 +2571,19 @@
         <v>306761</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>281649</v>
+        <v>282239</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>329243</v>
+        <v>327320</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5720610433934997</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5252320484162737</v>
+        <v>0.5263319456699643</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6139859932694419</v>
+        <v>0.6104008456916624</v>
       </c>
     </row>
     <row r="30">
@@ -2600,19 +2600,19 @@
         <v>51389</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>39091</v>
+        <v>39329</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>64747</v>
+        <v>65562</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1953055534722321</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1485665042850839</v>
+        <v>0.1494697550083288</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.246069806097093</v>
+        <v>0.2491676019118601</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -2621,19 +2621,19 @@
         <v>16800</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10128</v>
+        <v>9873</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26681</v>
+        <v>27134</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06151101603997339</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03708309578028395</v>
+        <v>0.03614848910937155</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09769201236665018</v>
+        <v>0.09935041646109585</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>69</v>
@@ -2642,19 +2642,19 @@
         <v>68189</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>53435</v>
+        <v>54531</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>83534</v>
+        <v>84063</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1271617531909913</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09964821094782043</v>
+        <v>0.1016914838355143</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1557784458198059</v>
+        <v>0.1567652234449177</v>
       </c>
     </row>
     <row r="31">
@@ -2671,19 +2671,19 @@
         <v>3910</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8881</v>
+        <v>9016</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01486103153354879</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003776525752218443</v>
+        <v>0.00376837124638607</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03375128182984671</v>
+        <v>0.03426499929723253</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -2692,19 +2692,19 @@
         <v>8029</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3492</v>
+        <v>3560</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16328</v>
+        <v>15433</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02939630996285818</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01278592440783575</v>
+        <v>0.01303431026456471</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05978399869770264</v>
+        <v>0.05650893189833323</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -2713,19 +2713,19 @@
         <v>11939</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6350</v>
+        <v>6267</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>20269</v>
+        <v>21273</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02226409244566248</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01184183147319178</v>
+        <v>0.01168672688284528</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03779815719428324</v>
+        <v>0.03967070309342853</v>
       </c>
     </row>
     <row r="32">
@@ -2742,19 +2742,19 @@
         <v>84320</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>69442</v>
+        <v>70185</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>100586</v>
+        <v>99849</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3204578931619897</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2639155092806088</v>
+        <v>0.2667394824002399</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3822768101211552</v>
+        <v>0.3794770113517948</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>64</v>
@@ -2763,19 +2763,19 @@
         <v>65029</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>52717</v>
+        <v>52300</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>80678</v>
+        <v>79681</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2381028922971559</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1930209916873011</v>
+        <v>0.1914957717620999</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2953977624105537</v>
+        <v>0.2917489688616332</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>145</v>
@@ -2784,19 +2784,19 @@
         <v>149349</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>130599</v>
+        <v>129733</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>170221</v>
+        <v>170676</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2785131109698465</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2435457950422693</v>
+        <v>0.2419311447384426</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3174347802389604</v>
+        <v>0.3182847470012505</v>
       </c>
     </row>
     <row r="33">
@@ -2888,19 +2888,19 @@
         <v>326713</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>297798</v>
+        <v>301796</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>350410</v>
+        <v>357401</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4984282502950564</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4543158046285329</v>
+        <v>0.4604159231332092</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5345798242597397</v>
+        <v>0.5452457035635876</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>396</v>
@@ -2909,19 +2909,19 @@
         <v>428899</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>402951</v>
+        <v>400223</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>454881</v>
+        <v>453980</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6221886293077101</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5845465028169966</v>
+        <v>0.5805895869573818</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6598802449918871</v>
+        <v>0.6585725963322171</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>691</v>
@@ -2930,19 +2930,19 @@
         <v>755612</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>717442</v>
+        <v>716597</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>795786</v>
+        <v>797247</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5618661276888298</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5334836253211649</v>
+        <v>0.5328553791657683</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5917394550039441</v>
+        <v>0.5928256355580426</v>
       </c>
     </row>
     <row r="35">
@@ -2959,19 +2959,19 @@
         <v>132045</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>112776</v>
+        <v>110300</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>154207</v>
+        <v>152507</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2014454411798235</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1720488518244438</v>
+        <v>0.1682720599595959</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2352552622996054</v>
+        <v>0.2326629869473754</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>81</v>
@@ -2980,19 +2980,19 @@
         <v>87173</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>71350</v>
+        <v>71227</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>107016</v>
+        <v>105945</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1264585460654794</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1035046936145632</v>
+        <v>0.1033266643611011</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1552445038626152</v>
+        <v>0.1536912625271749</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>197</v>
@@ -3001,19 +3001,19 @@
         <v>219217</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>190415</v>
+        <v>192508</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>248074</v>
+        <v>249994</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1630081844717043</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1415908847003051</v>
+        <v>0.1431470919063346</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1844659073790128</v>
+        <v>0.1858936005116041</v>
       </c>
     </row>
     <row r="36">
@@ -3030,19 +3030,19 @@
         <v>15837</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9310</v>
+        <v>9128</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>26374</v>
+        <v>25975</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02416080977935078</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01420357505457689</v>
+        <v>0.01392597756028292</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04023611611067229</v>
+        <v>0.03962685415122257</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>23</v>
@@ -3051,19 +3051,19 @@
         <v>23504</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>15259</v>
+        <v>15356</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>33803</v>
+        <v>34046</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03409649902286412</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02213540999916907</v>
+        <v>0.02227669735316023</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04903671811969085</v>
+        <v>0.04939002748686493</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>37</v>
@@ -3072,19 +3072,19 @@
         <v>39341</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>28630</v>
+        <v>28442</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>52738</v>
+        <v>53714</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02925370817769997</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02128897255864641</v>
+        <v>0.02114892314422502</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03921524587650134</v>
+        <v>0.03994128502456454</v>
       </c>
     </row>
     <row r="37">
@@ -3101,19 +3101,19 @@
         <v>180892</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>158484</v>
+        <v>154881</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>206047</v>
+        <v>205256</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2759654987457693</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2417811196831259</v>
+        <v>0.236283862022689</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3143426858358935</v>
+        <v>0.3131358463617273</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>144</v>
@@ -3122,19 +3122,19 @@
         <v>149763</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>126244</v>
+        <v>128006</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>171320</v>
+        <v>171506</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2172563256039463</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1831378004157501</v>
+        <v>0.1856944819323434</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2485278082316943</v>
+        <v>0.2487977822477772</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>298</v>
@@ -3143,19 +3143,19 @@
         <v>330655</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>295587</v>
+        <v>296980</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>360776</v>
+        <v>367696</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2458719796617659</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2197957392284115</v>
+        <v>0.2208316838567917</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.268270091173673</v>
+        <v>0.273415279952031</v>
       </c>
     </row>
     <row r="38">
@@ -3247,19 +3247,19 @@
         <v>382859</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>352684</v>
+        <v>356847</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>410313</v>
+        <v>412093</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4917384564723847</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4529818970191107</v>
+        <v>0.4583290081325582</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5270003061594749</v>
+        <v>0.5292862470556898</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>476</v>
@@ -3268,19 +3268,19 @@
         <v>525338</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>498448</v>
+        <v>498525</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>553822</v>
+        <v>550258</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6358733011802912</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6033255028134472</v>
+        <v>0.6034186139205538</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6703510881551515</v>
+        <v>0.6660372963182469</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>853</v>
@@ -3289,19 +3289,19 @@
         <v>908197</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>861971</v>
+        <v>869403</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>948729</v>
+        <v>948304</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5659428201583991</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.537137098980641</v>
+        <v>0.5417683183827968</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5912006455051692</v>
+        <v>0.5909358662306583</v>
       </c>
     </row>
     <row r="40">
@@ -3318,19 +3318,19 @@
         <v>140666</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>119622</v>
+        <v>120825</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>162608</v>
+        <v>164079</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1806686273924612</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1536410754606791</v>
+        <v>0.1551861125654602</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2088509916754545</v>
+        <v>0.210740787573221</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>75</v>
@@ -3339,19 +3339,19 @@
         <v>86541</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>68884</v>
+        <v>68225</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>105110</v>
+        <v>106885</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1047500042027435</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08337814022922126</v>
+        <v>0.0825800163178021</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1272263913091527</v>
+        <v>0.129374735576393</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>208</v>
@@ -3360,19 +3360,19 @@
         <v>227207</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>198410</v>
+        <v>198013</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>260210</v>
+        <v>258244</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1415837472780951</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1236394355509676</v>
+        <v>0.1233921146752816</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1621498515727097</v>
+        <v>0.1609249525741999</v>
       </c>
     </row>
     <row r="41">
@@ -3389,19 +3389,19 @@
         <v>20773</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12921</v>
+        <v>12457</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>31515</v>
+        <v>31684</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02668065185878123</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01659568929538128</v>
+        <v>0.01599973278471831</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04047689075380388</v>
+        <v>0.04069435678527147</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -3410,19 +3410,19 @@
         <v>9658</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4256</v>
+        <v>4282</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17903</v>
+        <v>17754</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01168975568380774</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005151683881579689</v>
+        <v>0.005182953754336844</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0216700516235923</v>
+        <v>0.02148971388311098</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>29</v>
@@ -3431,19 +3431,19 @@
         <v>30431</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20725</v>
+        <v>20500</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>42463</v>
+        <v>43080</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01896294893967582</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01291489146338657</v>
+        <v>0.01277431561285581</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02646112506686404</v>
+        <v>0.02684548639994618</v>
       </c>
     </row>
     <row r="42">
@@ -3460,19 +3460,19 @@
         <v>234285</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>210291</v>
+        <v>207607</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>260763</v>
+        <v>259656</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3009122642763729</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2700948734342442</v>
+        <v>0.2666472364566511</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3349204816519537</v>
+        <v>0.3334987460455714</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>195</v>
@@ -3481,19 +3481,19 @@
         <v>204631</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>180531</v>
+        <v>182098</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>230655</v>
+        <v>229997</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2476869389331577</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2185164296894827</v>
+        <v>0.2204129228530847</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2791863836596647</v>
+        <v>0.2783910009526215</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>415</v>
@@ -3502,19 +3502,19 @@
         <v>438916</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>401465</v>
+        <v>403013</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>476826</v>
+        <v>476230</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.27351048362383</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2501728788214276</v>
+        <v>0.2511377359283793</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2971343100593209</v>
+        <v>0.2967627988843924</v>
       </c>
     </row>
     <row r="43">
@@ -3606,19 +3606,19 @@
         <v>1512996</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1457084</v>
+        <v>1457945</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1573786</v>
+        <v>1579222</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4459937995900738</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4295123441060736</v>
+        <v>0.4297661004291906</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4639132192937351</v>
+        <v>0.4655156749578715</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2075</v>
@@ -3627,19 +3627,19 @@
         <v>2229945</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2167374</v>
+        <v>2165127</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2297459</v>
+        <v>2289146</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6300876540347498</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6124076963580812</v>
+        <v>0.6117728115187643</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6491643457869958</v>
+        <v>0.6468153934602578</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3529</v>
@@ -3648,19 +3648,19 @@
         <v>3742941</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3657053</v>
+        <v>3650266</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3833455</v>
+        <v>3833060</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5399886897402438</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5275977941761679</v>
+        <v>0.5266186675772446</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5530469836492832</v>
+        <v>0.5529900881304646</v>
       </c>
     </row>
     <row r="45">
@@ -3677,19 +3677,19 @@
         <v>703281</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>653028</v>
+        <v>656745</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>749061</v>
+        <v>754237</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2073099158523271</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1924966950859066</v>
+        <v>0.1935922155425106</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2208045904944239</v>
+        <v>0.2223303309293249</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>365</v>
@@ -3698,19 +3698,19 @@
         <v>387179</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1094004155006001</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1046</v>
@@ -3719,19 +3719,19 @@
         <v>1090460</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1027544</v>
+        <v>1030706</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1151965</v>
+        <v>1163082</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.157319150229109</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1482422452210958</v>
+        <v>0.1486984950277908</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1661922763723642</v>
+        <v>0.1677962366239324</v>
       </c>
     </row>
     <row r="46">
@@ -3748,19 +3748,19 @@
         <v>85745</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>67855</v>
+        <v>69295</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>106229</v>
+        <v>106357</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02527551363332192</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02000197935451804</v>
+        <v>0.02042655422398204</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0313136808077318</v>
+        <v>0.03135154532617775</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>72</v>
@@ -3769,19 +3769,19 @@
         <v>74404</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>59806</v>
+        <v>59067</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>93822</v>
+        <v>92631</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02102331796683824</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01689850649786415</v>
+        <v>0.01668995911509733</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02651008258389173</v>
+        <v>0.02617368020891655</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>153</v>
@@ -3790,19 +3790,19 @@
         <v>160149</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>135671</v>
+        <v>136299</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>186015</v>
+        <v>187686</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02310442179663991</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01957304236668609</v>
+        <v>0.01966368197785931</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02683606342778791</v>
+        <v>0.02707711918948483</v>
       </c>
     </row>
     <row r="47">
@@ -3819,19 +3819,19 @@
         <v>1090392</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1032901</v>
+        <v>1034006</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1147265</v>
+        <v>1146673</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3214207709242772</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3044736486004316</v>
+        <v>0.3047993307146093</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3381855192489536</v>
+        <v>0.3380109153811833</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>821</v>
@@ -3840,19 +3840,19 @@
         <v>847575</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>795408</v>
+        <v>793285</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>902260</v>
+        <v>901754</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2394886124978119</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.224748469136502</v>
+        <v>0.2241485366542341</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2549403789690229</v>
+        <v>0.2547974147981649</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1834</v>
@@ -3861,19 +3861,19 @@
         <v>1937967</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1854040</v>
+        <v>1866061</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2011178</v>
+        <v>2025133</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2795877382340072</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2674796161425477</v>
+        <v>0.2692139544330885</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2901497687024669</v>
+        <v>0.2921630909554056</v>
       </c>
     </row>
     <row r="48">
@@ -4209,19 +4209,19 @@
         <v>192533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>175210</v>
+        <v>172613</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>210020</v>
+        <v>209876</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6038459055695743</v>
+        <v>0.6038459055695744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5495147723668771</v>
+        <v>0.5413703934958699</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6586906240884414</v>
+        <v>0.658236805190702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>398</v>
@@ -4230,19 +4230,19 @@
         <v>237292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>224111</v>
+        <v>225566</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>250307</v>
+        <v>247963</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7507777344217221</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7090755349967979</v>
+        <v>0.7136785610500685</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7919581388567803</v>
+        <v>0.7845410541354995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>592</v>
@@ -4251,19 +4251,19 @@
         <v>429825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>407388</v>
+        <v>408645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>451184</v>
+        <v>452206</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6769896053524694</v>
+        <v>0.6769896053524693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6416504311353786</v>
+        <v>0.6436305275938528</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7106311021977806</v>
+        <v>0.7122413560155529</v>
       </c>
     </row>
     <row r="5">
@@ -4280,19 +4280,19 @@
         <v>50361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40130</v>
+        <v>40193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63655</v>
+        <v>62399</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1579491684654907</v>
+        <v>0.1579491684654908</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1258606630692054</v>
+        <v>0.1260578951589611</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1996410346798185</v>
+        <v>0.195704429556016</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -4301,19 +4301,19 @@
         <v>12436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8219</v>
+        <v>8142</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18154</v>
+        <v>17792</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03934702460138761</v>
+        <v>0.03934702460138762</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0260030841826608</v>
+        <v>0.02576190611543925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05743962814734799</v>
+        <v>0.05629278990166163</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -4322,19 +4322,19 @@
         <v>62797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52634</v>
+        <v>50523</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76922</v>
+        <v>77172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09890818549962153</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08290037993174554</v>
+        <v>0.07957587849395469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1211553662424746</v>
+        <v>0.1215487109488941</v>
       </c>
     </row>
     <row r="6">
@@ -4351,19 +4351,19 @@
         <v>10833</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4624</v>
+        <v>4530</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23091</v>
+        <v>21345</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03397464774458379</v>
+        <v>0.0339746477445838</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01450373608360921</v>
+        <v>0.01420905964192446</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07242072537105862</v>
+        <v>0.06694447595931458</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -4372,19 +4372,19 @@
         <v>6076</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2949</v>
+        <v>3022</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10985</v>
+        <v>10636</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01922299822765178</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009329292492444255</v>
+        <v>0.009561033242563183</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03475453486038437</v>
+        <v>0.03365047800862651</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -4393,19 +4393,19 @@
         <v>16908</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10137</v>
+        <v>9144</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29006</v>
+        <v>27972</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02663117266503033</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01596644205963609</v>
+        <v>0.014402352003888</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04568589646136082</v>
+        <v>0.04405661730150107</v>
       </c>
     </row>
     <row r="7">
@@ -4422,19 +4422,19 @@
         <v>65118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49884</v>
+        <v>51651</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81665</v>
+        <v>81243</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2042302782203511</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1564514450359575</v>
+        <v>0.1619935496007781</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2561286598284722</v>
+        <v>0.2548026424060905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>105</v>
@@ -4443,19 +4443,19 @@
         <v>60258</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48515</v>
+        <v>50389</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72549</v>
+        <v>72479</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1906522427492384</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1534990750894068</v>
+        <v>0.1594292418470244</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2295414646353542</v>
+        <v>0.2293193132173646</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -4464,19 +4464,19 @@
         <v>125376</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107132</v>
+        <v>107118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>145694</v>
+        <v>141799</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1974710364828789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1687370971890238</v>
+        <v>0.1687144077382632</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2294727250855837</v>
+        <v>0.2233383603056057</v>
       </c>
     </row>
     <row r="8">
@@ -4568,19 +4568,19 @@
         <v>274402</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>246967</v>
+        <v>245754</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>303986</v>
+        <v>304300</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5171082897219489</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4654066111812702</v>
+        <v>0.4631210992582162</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5728585457205527</v>
+        <v>0.5734501055851825</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>499</v>
@@ -4589,19 +4589,19 @@
         <v>376472</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>354822</v>
+        <v>357388</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>395439</v>
+        <v>395463</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.6888855424353878</v>
+        <v>0.6888855424353879</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6492688570004596</v>
+        <v>0.6539651074969879</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7235931919595818</v>
+        <v>0.7236373195219468</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>683</v>
@@ -4610,19 +4610,19 @@
         <v>650874</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>614830</v>
+        <v>616042</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>687283</v>
+        <v>684854</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6042605443544248</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5707983656521711</v>
+        <v>0.5719232653480694</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6380623255488145</v>
+        <v>0.635807401414174</v>
       </c>
     </row>
     <row r="10">
@@ -4639,19 +4639,19 @@
         <v>119511</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98374</v>
+        <v>100447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140919</v>
+        <v>143370</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2252165896487388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1853853575464624</v>
+        <v>0.189291406137542</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2655604369209768</v>
+        <v>0.2701792325241755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -4660,19 +4660,19 @@
         <v>66743</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54885</v>
+        <v>53416</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81790</v>
+        <v>81855</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1221296850221398</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1004309092525536</v>
+        <v>0.09774328934530913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1496624431121206</v>
+        <v>0.1497825645275286</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>194</v>
@@ -4681,19 +4681,19 @@
         <v>186254</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161763</v>
+        <v>161496</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>213332</v>
+        <v>211951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.172914809177964</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1501780846558924</v>
+        <v>0.1499304060909058</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1980535375806047</v>
+        <v>0.1967714832894917</v>
       </c>
     </row>
     <row r="11">
@@ -4710,19 +4710,19 @@
         <v>16697</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6957</v>
+        <v>7273</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31252</v>
+        <v>33677</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03146494409592256</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01310982027823101</v>
+        <v>0.01370665262114775</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05889322333054192</v>
+        <v>0.06346488495969266</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -4731,19 +4731,19 @@
         <v>13454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7391</v>
+        <v>7211</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24314</v>
+        <v>24770</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02461851527423111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01352393669192454</v>
+        <v>0.01319433010722845</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04449021990872747</v>
+        <v>0.04532483439092465</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -4752,19 +4752,19 @@
         <v>30151</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18261</v>
+        <v>19160</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53865</v>
+        <v>46407</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02799136596746939</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01695299852396356</v>
+        <v>0.01778750074835799</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05000730846051769</v>
+        <v>0.04308310955222296</v>
       </c>
     </row>
     <row r="12">
@@ -4781,19 +4781,19 @@
         <v>120038</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97099</v>
+        <v>94854</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>145253</v>
+        <v>144780</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2262101765333897</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1829821905339795</v>
+        <v>0.1787513695175864</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2737273941337297</v>
+        <v>0.2728360493595552</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -4802,19 +4802,19 @@
         <v>89825</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>74893</v>
+        <v>75460</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>104859</v>
+        <v>107647</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1643662572682412</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1370429635435402</v>
+        <v>0.1380805070687555</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.191875490513538</v>
+        <v>0.1969770191105628</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>199</v>
@@ -4823,19 +4823,19 @@
         <v>209863</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>181683</v>
+        <v>184017</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>241387</v>
+        <v>242339</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.194833280500142</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1686718091926542</v>
+        <v>0.1708382645082135</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2240993460349307</v>
+        <v>0.2249834266846414</v>
       </c>
     </row>
     <row r="13">
@@ -4927,19 +4927,19 @@
         <v>168744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151430</v>
+        <v>151005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>184800</v>
+        <v>184346</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5340130009109968</v>
+        <v>0.5340130009109969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4792179139641979</v>
+        <v>0.4778757169531931</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5848229656081586</v>
+        <v>0.5833864756487704</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>370</v>
@@ -4948,19 +4948,19 @@
         <v>242111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226321</v>
+        <v>226206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>255691</v>
+        <v>255846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6793587464917173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6350536110057758</v>
+        <v>0.6347305284886486</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7174658485723391</v>
+        <v>0.7178998219597658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>553</v>
@@ -4969,19 +4969,19 @@
         <v>410856</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>387007</v>
+        <v>390074</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>434555</v>
+        <v>434327</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6110511558654308</v>
+        <v>0.6110511558654307</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5755825111647505</v>
+        <v>0.5801440800809685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6462991195773576</v>
+        <v>0.6459593620360508</v>
       </c>
     </row>
     <row r="15">
@@ -4998,19 +4998,19 @@
         <v>67688</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55331</v>
+        <v>56043</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>81598</v>
+        <v>82620</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2142058943316514</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1751025160703741</v>
+        <v>0.177353685530687</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2582259115603236</v>
+        <v>0.2614614090470808</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>74</v>
@@ -5019,19 +5019,19 @@
         <v>49636</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39403</v>
+        <v>40057</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60456</v>
+        <v>60925</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1392777527918994</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1105639846432133</v>
+        <v>0.112400271942937</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1696380303867125</v>
+        <v>0.170954603296078</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>165</v>
@@ -5040,19 +5040,19 @@
         <v>117324</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>101388</v>
+        <v>100563</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>135072</v>
+        <v>134598</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1744914482340091</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.150790333664563</v>
+        <v>0.1495641984965894</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2008881020891498</v>
+        <v>0.2001828712914999</v>
       </c>
     </row>
     <row r="16">
@@ -5069,19 +5069,19 @@
         <v>4314</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1104</v>
+        <v>1003</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10816</v>
+        <v>10651</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01365085027456298</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003494055693852479</v>
+        <v>0.003173884587326654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03422899178086707</v>
+        <v>0.03370671522256694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -5090,19 +5090,19 @@
         <v>4743</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1862</v>
+        <v>2190</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10221</v>
+        <v>10216</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01330773890881925</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005225676698992009</v>
+        <v>0.006144789216385283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02868137964325206</v>
+        <v>0.02866613617331789</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -5111,19 +5111,19 @@
         <v>9056</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4507</v>
+        <v>4510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16401</v>
+        <v>15919</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01346898966037587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006703743862740126</v>
+        <v>0.006708123955907312</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02439277678158188</v>
+        <v>0.02367641254799739</v>
       </c>
     </row>
     <row r="17">
@@ -5140,19 +5140,19 @@
         <v>75247</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61241</v>
+        <v>61807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89135</v>
+        <v>91504</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2381302544827887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.193806491125899</v>
+        <v>0.1955967757442982</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2820783913195437</v>
+        <v>0.2895775208021115</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -5161,19 +5161,19 @@
         <v>59892</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49061</v>
+        <v>49131</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73300</v>
+        <v>73511</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.168055761807564</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1376657119140179</v>
+        <v>0.1378598675211231</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2056775929324878</v>
+        <v>0.20626952560039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>167</v>
@@ -5182,19 +5182,19 @@
         <v>135140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>116462</v>
+        <v>116391</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>153829</v>
+        <v>154612</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2009884062401844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1732092460685507</v>
+        <v>0.173103991030001</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2287840068703043</v>
+        <v>0.2299483229485217</v>
       </c>
     </row>
     <row r="18">
@@ -5286,19 +5286,19 @@
         <v>173142</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>148553</v>
+        <v>146503</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>200267</v>
+        <v>199250</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.464006434160897</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3981101273456785</v>
+        <v>0.3926170795928192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5367004507984647</v>
+        <v>0.5339738650498559</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>412</v>
@@ -5307,19 +5307,19 @@
         <v>276644</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>256602</v>
+        <v>258423</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>295576</v>
+        <v>295828</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6556142197087594</v>
+        <v>0.6556142197087595</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6081183261543106</v>
+        <v>0.6124335419091772</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.700481171530297</v>
+        <v>0.7010797223266727</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>528</v>
@@ -5328,19 +5328,19 @@
         <v>449786</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>418994</v>
+        <v>418518</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>480718</v>
+        <v>480743</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5656922803632918</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5269660204753848</v>
+        <v>0.5263670197350592</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6045958285243481</v>
+        <v>0.6046271293325338</v>
       </c>
     </row>
     <row r="20">
@@ -5357,19 +5357,19 @@
         <v>107431</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87395</v>
+        <v>89043</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127878</v>
+        <v>131319</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2879069450826225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2342121665326366</v>
+        <v>0.2386284282410684</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3427034846113775</v>
+        <v>0.3519260177083559</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -5378,19 +5378,19 @@
         <v>65094</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52216</v>
+        <v>52583</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79412</v>
+        <v>78710</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1542659225624074</v>
+        <v>0.1542659225624075</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1237468418309907</v>
+        <v>0.1246148757515285</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1881984093967293</v>
+        <v>0.1865340454905709</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>210</v>
@@ -5399,19 +5399,19 @@
         <v>172525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>148184</v>
+        <v>150638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>194424</v>
+        <v>198946</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2169839373172265</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1863693504739719</v>
+        <v>0.1894567163330692</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2445251008614251</v>
+        <v>0.2502132497762806</v>
       </c>
     </row>
     <row r="21">
@@ -5428,19 +5428,19 @@
         <v>3447</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>636</v>
+        <v>674</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9386</v>
+        <v>11622</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009237835273634061</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001703226352388737</v>
+        <v>0.001807401015618495</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02515483106820084</v>
+        <v>0.0311447653691491</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -5449,19 +5449,19 @@
         <v>7557</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3769</v>
+        <v>3886</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13223</v>
+        <v>12759</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01790956243659574</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008931198352382971</v>
+        <v>0.00920843428820464</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03133810670296607</v>
+        <v>0.03023683595004507</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -5470,19 +5470,19 @@
         <v>11004</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6518</v>
+        <v>5949</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>19570</v>
+        <v>18689</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01383990252304541</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008197803672900381</v>
+        <v>0.007482127285079501</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02461307839830957</v>
+        <v>0.02350555880953929</v>
       </c>
     </row>
     <row r="22">
@@ -5499,19 +5499,19 @@
         <v>89125</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68811</v>
+        <v>67981</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>117154</v>
+        <v>114748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2388487854828465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1844085656784785</v>
+        <v>0.1821829351940494</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3139628556724959</v>
+        <v>0.3075163145485329</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -5520,19 +5520,19 @@
         <v>72666</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58060</v>
+        <v>57151</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90940</v>
+        <v>90987</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1722102952922374</v>
+        <v>0.1722102952922375</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1375966675825363</v>
+        <v>0.135442184257859</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2155167851646049</v>
+        <v>0.2156296445028092</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -5541,19 +5541,19 @@
         <v>161791</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136326</v>
+        <v>136997</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>192319</v>
+        <v>191338</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2034838797964363</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1714560688569839</v>
+        <v>0.1723004535859268</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.241878659130722</v>
+        <v>0.2406441994706354</v>
       </c>
     </row>
     <row r="23">
@@ -5645,19 +5645,19 @@
         <v>148848</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>137773</v>
+        <v>135634</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>158981</v>
+        <v>159213</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7237382380929772</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6698925553902159</v>
+        <v>0.6594885948876288</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7730082057399152</v>
+        <v>0.774135666501016</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>403</v>
@@ -5666,19 +5666,19 @@
         <v>186211</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>177789</v>
+        <v>177081</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>194199</v>
+        <v>194159</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8195353056074405</v>
+        <v>0.8195353056074401</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7824686735678682</v>
+        <v>0.7793544816661072</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8546914578329476</v>
+        <v>0.854517560031485</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>599</v>
@@ -5687,19 +5687,19 @@
         <v>335058</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>319073</v>
+        <v>320816</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>347413</v>
+        <v>347609</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7740212979598206</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7370950439205747</v>
+        <v>0.7411208517556959</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.802563915531825</v>
+        <v>0.8030170561551572</v>
       </c>
     </row>
     <row r="25">
@@ -5716,19 +5716,19 @@
         <v>15697</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10655</v>
+        <v>10430</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22509</v>
+        <v>22795</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07632106733147503</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05180729670276622</v>
+        <v>0.0507137629058401</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.109444400971518</v>
+        <v>0.1108362694558215</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -5737,19 +5737,19 @@
         <v>8832</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5505</v>
+        <v>5295</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14061</v>
+        <v>13859</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03887060447539756</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02422616020525047</v>
+        <v>0.02330239339256951</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06188425813999545</v>
+        <v>0.06099382831181446</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -5758,19 +5758,19 @@
         <v>24528</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18060</v>
+        <v>18128</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32353</v>
+        <v>32606</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05666364028602996</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04172159912437749</v>
+        <v>0.04187721476320259</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07473892714964207</v>
+        <v>0.07532336422639598</v>
       </c>
     </row>
     <row r="26">
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6019</v>
+        <v>6530</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00829300865107227</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0292649201438545</v>
+        <v>0.03175048452769257</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -5808,19 +5808,19 @@
         <v>4217</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1986</v>
+        <v>1937</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8296</v>
+        <v>7926</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.01855989204413254</v>
+        <v>0.01855989204413253</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008740887995124225</v>
+        <v>0.00852471607608247</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03651132335901072</v>
+        <v>0.03488448174045911</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -5829,19 +5829,19 @@
         <v>5923</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3036</v>
+        <v>2994</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11385</v>
+        <v>11568</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01368200776862049</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007013445168431685</v>
+        <v>0.006915787713244428</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02630039347555741</v>
+        <v>0.02672394849331471</v>
       </c>
     </row>
     <row r="27">
@@ -5858,19 +5858,19 @@
         <v>39415</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>30749</v>
+        <v>30220</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>49839</v>
+        <v>50083</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1916476859244755</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1495080234391649</v>
+        <v>0.1469370813782658</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2423310179946394</v>
+        <v>0.2435193061282944</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>60</v>
@@ -5879,19 +5879,19 @@
         <v>27955</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>21048</v>
+        <v>21558</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>34980</v>
+        <v>36438</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1230341978730296</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09263501827330141</v>
+        <v>0.09487806210399384</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1539519651996401</v>
+        <v>0.1603663966692824</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>115</v>
@@ -5900,19 +5900,19 @@
         <v>67370</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>56566</v>
+        <v>55620</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>80740</v>
+        <v>80816</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1556330539855291</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1306744857969014</v>
+        <v>0.1284882348458867</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1865182921756796</v>
+        <v>0.1866938780621688</v>
       </c>
     </row>
     <row r="28">
@@ -6004,19 +6004,19 @@
         <v>150196</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>136289</v>
+        <v>134219</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>165860</v>
+        <v>164120</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5548284009275478</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5034556945405645</v>
+        <v>0.4958095982773321</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6126935363448061</v>
+        <v>0.6062631045115713</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>363</v>
@@ -6025,19 +6025,19 @@
         <v>203364</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>191129</v>
+        <v>191614</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>213015</v>
+        <v>214084</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7710499651347519</v>
+        <v>0.7710499651347515</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7246614280034424</v>
+        <v>0.7264989790818714</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8076410915881326</v>
+        <v>0.811694251398137</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>562</v>
@@ -6046,19 +6046,19 @@
         <v>353560</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>334404</v>
+        <v>335064</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>371212</v>
+        <v>371275</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6615319743514005</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6256888276570061</v>
+        <v>0.6269238135180348</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6945598666438358</v>
+        <v>0.6946764894576219</v>
       </c>
     </row>
     <row r="30">
@@ -6075,19 +6075,19 @@
         <v>44536</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>35685</v>
+        <v>34829</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54928</v>
+        <v>54529</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1645171468859135</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1318205012945419</v>
+        <v>0.1286599962728348</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2029062006518326</v>
+        <v>0.2014333439810222</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -6096,19 +6096,19 @@
         <v>11500</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7151</v>
+        <v>7090</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17816</v>
+        <v>17847</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.0436020401324177</v>
+        <v>0.04360204013241768</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02711343540106276</v>
+        <v>0.02688255376661882</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06754753564387379</v>
+        <v>0.06766458818481438</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>98</v>
@@ -6117,19 +6117,19 @@
         <v>56036</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>45615</v>
+        <v>45974</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>68824</v>
+        <v>67857</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1048465306879813</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08534826747261418</v>
+        <v>0.08602071535260612</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1287738341322604</v>
+        <v>0.1269648976090863</v>
       </c>
     </row>
     <row r="31">
@@ -6146,19 +6146,19 @@
         <v>6807</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2217</v>
+        <v>2172</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14184</v>
+        <v>14079</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.0251434436396128</v>
+        <v>0.02514344363961279</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.008189745872415529</v>
+        <v>0.008024080394152314</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05239638479001706</v>
+        <v>0.05200686360734261</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -6167,19 +6167,19 @@
         <v>3904</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1693</v>
+        <v>1662</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8303</v>
+        <v>7584</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01480192694378626</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006420747519219355</v>
+        <v>0.006299847763301918</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03147899434773112</v>
+        <v>0.0287557784625539</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -6188,19 +6188,19 @@
         <v>10711</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5789</v>
+        <v>5600</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19249</v>
+        <v>17883</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02003998973522022</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0108321690017698</v>
+        <v>0.01047718895427606</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03601683573053219</v>
+        <v>0.03345945010048718</v>
       </c>
     </row>
     <row r="32">
@@ -6217,19 +6217,19 @@
         <v>69169</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55619</v>
+        <v>57423</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>82478</v>
+        <v>83173</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2555110085469259</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2054584027553681</v>
+        <v>0.2121226120458622</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3046764832271575</v>
+        <v>0.3072427249397349</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>70</v>
@@ -6238,19 +6238,19 @@
         <v>44982</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36060</v>
+        <v>35458</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55675</v>
+        <v>55353</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1705460677890443</v>
+        <v>0.1705460677890442</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.136720274717004</v>
+        <v>0.1344390275167593</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.211090763215365</v>
+        <v>0.2098709580378277</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>158</v>
@@ -6259,19 +6259,19 @@
         <v>114150</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>99379</v>
+        <v>98101</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>130839</v>
+        <v>130972</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.213581505225398</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1859439378629091</v>
+        <v>0.1835528997498971</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2448069289079702</v>
+        <v>0.2450554723105034</v>
       </c>
     </row>
     <row r="33">
@@ -6363,19 +6363,19 @@
         <v>383691</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>350195</v>
+        <v>355239</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>413794</v>
+        <v>415304</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5348159213182954</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4881258880113762</v>
+        <v>0.4951570818603587</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5767746646483092</v>
+        <v>0.5788804390374173</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>598</v>
@@ -6384,19 +6384,19 @@
         <v>483747</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>459869</v>
+        <v>458807</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>511341</v>
+        <v>509607</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.6297268156413545</v>
+        <v>0.6297268156413544</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5986439161692156</v>
+        <v>0.5972610309225661</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6656484070911163</v>
+        <v>0.6633906472590746</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>896</v>
@@ -6405,19 +6405,19 @@
         <v>867438</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>827479</v>
+        <v>828755</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>907707</v>
+        <v>905402</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5838927371491536</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.556995077107084</v>
+        <v>0.557853935280184</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6109984235439666</v>
+        <v>0.6094468383530143</v>
       </c>
     </row>
     <row r="35">
@@ -6434,19 +6434,19 @@
         <v>143540</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>122773</v>
+        <v>122758</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>168677</v>
+        <v>166038</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.2000764809938888</v>
+        <v>0.2000764809938887</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1711292492287382</v>
+        <v>0.1711084202278534</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2351140117400249</v>
+        <v>0.2314351311606711</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>142</v>
@@ -6455,19 +6455,19 @@
         <v>108060</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>91566</v>
+        <v>92210</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>125450</v>
+        <v>124510</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1406696480860216</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1191983172107188</v>
+        <v>0.1200367361336403</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1633072799594369</v>
+        <v>0.1620835745555319</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>286</v>
@@ -6476,19 +6476,19 @@
         <v>251601</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>223691</v>
+        <v>224370</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>281807</v>
+        <v>279648</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1693582139444798</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1505713883140512</v>
+        <v>0.1510287586103508</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1896908136469005</v>
+        <v>0.1882372385232532</v>
       </c>
     </row>
     <row r="36">
@@ -6505,19 +6505,19 @@
         <v>34774</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>22130</v>
+        <v>22003</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>53843</v>
+        <v>54140</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.04847111617988747</v>
+        <v>0.04847111617988745</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03084645007341313</v>
+        <v>0.03066900109626318</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07505077062314977</v>
+        <v>0.07546420467863506</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>31</v>
@@ -6526,19 +6526,19 @@
         <v>26729</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>17940</v>
+        <v>18289</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>38524</v>
+        <v>40397</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03479506896114785</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02335361492891564</v>
+        <v>0.02380869148514798</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05014881512697542</v>
+        <v>0.05258753591455487</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>54</v>
@@ -6547,19 +6547,19 @@
         <v>61504</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>44387</v>
+        <v>44921</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>82415</v>
+        <v>82294</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.04139946381126006</v>
+        <v>0.04139946381126007</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02987792308006413</v>
+        <v>0.03023754947588523</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05547564479092183</v>
+        <v>0.05539412220959627</v>
       </c>
     </row>
     <row r="37">
@@ -6576,19 +6576,19 @@
         <v>155421</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>130579</v>
+        <v>131997</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>181967</v>
+        <v>183120</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.2166364815079285</v>
+        <v>0.2166364815079284</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1820100938008965</v>
+        <v>0.1839867333929166</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2536378182313271</v>
+        <v>0.2552455131069367</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>186</v>
@@ -6597,19 +6597,19 @@
         <v>149649</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>128453</v>
+        <v>129169</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>171074</v>
+        <v>171821</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1948084673114761</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1672166681730214</v>
+        <v>0.1681485045025319</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2226984010069905</v>
+        <v>0.2236708832050649</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>318</v>
@@ -6618,19 +6618,19 @@
         <v>305070</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>273015</v>
+        <v>271555</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>337879</v>
+        <v>336452</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2053495850951066</v>
+        <v>0.2053495850951065</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1837729595482412</v>
+        <v>0.1827898189227894</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2274345277017604</v>
+        <v>0.2264735203990055</v>
       </c>
     </row>
     <row r="38">
@@ -6722,19 +6722,19 @@
         <v>472648</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>446325</v>
+        <v>443274</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>504348</v>
+        <v>500011</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5930856165863349</v>
+        <v>0.5930856165863347</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5600555035438088</v>
+        <v>0.5562272911549395</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6328630733641732</v>
+        <v>0.6274211730513616</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>840</v>
@@ -6743,19 +6743,19 @@
         <v>651782</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>627788</v>
+        <v>627918</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>671738</v>
+        <v>671063</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.7840227802117552</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.7551601880723298</v>
+        <v>0.7553165639148942</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8080276077190063</v>
+        <v>0.8072146248655051</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1269</v>
@@ -6764,19 +6764,19 @@
         <v>1124431</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1088607</v>
+        <v>1089612</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1162294</v>
+        <v>1164316</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.6905712174247756</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.6685697669343087</v>
+        <v>0.6691870524272393</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.7138251164849251</v>
+        <v>0.7150669409323862</v>
       </c>
     </row>
     <row r="40">
@@ -6793,19 +6793,19 @@
         <v>114644</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>97721</v>
+        <v>95713</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>132924</v>
+        <v>133608</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.1438572498728068</v>
+        <v>0.1438572498728067</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.122622301943063</v>
+        <v>0.1201021994766961</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1667945714076189</v>
+        <v>0.1676532219062796</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>61</v>
@@ -6814,19 +6814,19 @@
         <v>44241</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>33346</v>
+        <v>34655</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>55942</v>
+        <v>56826</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0532171095290803</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04011193121091214</v>
+        <v>0.04168579731408231</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06729157488780829</v>
+        <v>0.06835492793377985</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>202</v>
@@ -6835,19 +6835,19 @@
         <v>158885</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>138421</v>
+        <v>139747</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>181433</v>
+        <v>180945</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09757967680262442</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08501123216712317</v>
+        <v>0.0858256068013195</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1114272774354249</v>
+        <v>0.1111274394575653</v>
       </c>
     </row>
     <row r="41">
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6079</v>
+        <v>5588</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001395097269303894</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.007627664140250538</v>
+        <v>0.007012383657466366</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -6885,19 +6885,19 @@
         <v>10054</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5207</v>
+        <v>5776</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16583</v>
+        <v>17496</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01209332685121718</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006263288322365341</v>
+        <v>0.006947373372424321</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01994800525739915</v>
+        <v>0.02104615914098586</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>14</v>
@@ -6906,19 +6906,19 @@
         <v>11165</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5886</v>
+        <v>6269</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>18682</v>
+        <v>18548</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006857225850759091</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003614761966386104</v>
+        <v>0.003850273609090244</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01147339916860671</v>
+        <v>0.01139150822430449</v>
       </c>
     </row>
     <row r="42">
@@ -6935,19 +6935,19 @@
         <v>208526</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>180011</v>
+        <v>181509</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>232813</v>
+        <v>234910</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.2616620362715545</v>
+        <v>0.2616620362715544</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2258802357052647</v>
+        <v>0.2277608826409798</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2921369052727447</v>
+        <v>0.2947686223324253</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>148</v>
@@ -6956,19 +6956,19 @@
         <v>125254</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>107343</v>
+        <v>107724</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>145685</v>
+        <v>145651</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1506667834079473</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1291222348878482</v>
+        <v>0.129580540122344</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1752432116606898</v>
+        <v>0.1752021576287712</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>338</v>
@@ -6977,19 +6977,19 @@
         <v>333780</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>297656</v>
+        <v>297672</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>368843</v>
+        <v>364875</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2049918799218411</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.182806110017409</v>
+        <v>0.1828160209842499</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2265258367534285</v>
+        <v>0.2240884083521603</v>
       </c>
     </row>
     <row r="43">
@@ -7081,19 +7081,19 @@
         <v>1964205</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1897952</v>
+        <v>1900615</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2023419</v>
+        <v>2029618</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5565327501009546</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5377607224232632</v>
+        <v>0.538515302034123</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5733102850124038</v>
+        <v>0.5750667624491806</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3883</v>
@@ -7102,19 +7102,19 @@
         <v>2657623</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2610180</v>
+        <v>2605440</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2706485</v>
+        <v>2705860</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7122360195297084</v>
+        <v>0.7122360195297082</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6995212735889615</v>
+        <v>0.6982510467306072</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7253307884585781</v>
+        <v>0.7251632912519943</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5682</v>
@@ -7123,19 +7123,19 @@
         <v>4621828</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4544004</v>
+        <v>4534692</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>4704577</v>
+        <v>4707644</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.6365504866575343</v>
+        <v>0.6365504866575342</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6258321059623767</v>
+        <v>0.6245495251827119</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6479473619577411</v>
+        <v>0.6483697607866755</v>
       </c>
     </row>
     <row r="45">
@@ -7152,19 +7152,19 @@
         <v>663408</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>617455</v>
+        <v>619828</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>709894</v>
+        <v>712187</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1879682382793692</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.174948186469735</v>
+        <v>0.1756205147130682</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2011394400142911</v>
+        <v>0.201789171700307</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>526</v>
@@ -7173,19 +7173,19 @@
         <v>366543</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>336342</v>
+        <v>339648</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>401101</v>
+        <v>399663</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.0982325421126517</v>
+        <v>0.09823254211265169</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.09013864715065766</v>
+        <v>0.09102477497782381</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1074939738558148</v>
+        <v>0.1071087043942256</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1289</v>
@@ -7194,19 +7194,19 @@
         <v>1029951</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>973152</v>
+        <v>972218</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1081848</v>
+        <v>1086563</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1418520114208492</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1340292665893213</v>
+        <v>0.1339007272906237</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1489997439297438</v>
+        <v>0.1496490313241992</v>
       </c>
     </row>
     <row r="46">
@@ -7223,19 +7223,19 @@
         <v>79688</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>59030</v>
+        <v>60679</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>106310</v>
+        <v>107477</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02257872521900235</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01672537858933066</v>
+        <v>0.01719251606354184</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03012168334245065</v>
+        <v>0.03045236725108229</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>103</v>
@@ -7244,19 +7244,19 @@
         <v>76733</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>63194</v>
+        <v>61213</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>95316</v>
+        <v>94969</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.02056424389081857</v>
+        <v>0.02056424389081856</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01693589125854263</v>
+        <v>0.01640485309992923</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02554450049523973</v>
+        <v>0.02545157413234628</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>158</v>
@@ -7265,19 +7265,19 @@
         <v>156421</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>129797</v>
+        <v>131772</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>186072</v>
+        <v>189346</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02154345963461128</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01787648474453463</v>
+        <v>0.0181485204218441</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02562709915298617</v>
+        <v>0.0260780018245827</v>
       </c>
     </row>
     <row r="47">
@@ -7294,19 +7294,19 @@
         <v>822060</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>768167</v>
+        <v>768505</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>878540</v>
+        <v>875947</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.232920286400674</v>
+        <v>0.2329202864006739</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2176505075399477</v>
+        <v>0.2177460946047874</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2489232168708154</v>
+        <v>0.2481886344062854</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>849</v>
@@ -7315,19 +7315,19 @@
         <v>630481</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>589467</v>
+        <v>591246</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>670865</v>
+        <v>678133</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1689671944668214</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.157975652036824</v>
+        <v>0.1584522440002269</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1797901128163412</v>
+        <v>0.1817378517229384</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1605</v>
@@ -7336,19 +7336,19 @@
         <v>1452540</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1383567</v>
+        <v>1387153</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1524182</v>
+        <v>1528361</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2000540422870054</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1905545921188131</v>
+        <v>0.1910484833846902</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2099210109401287</v>
+        <v>0.2104965900497094</v>
       </c>
     </row>
     <row r="48">
